--- a/excel_letter_series.xlsx
+++ b/excel_letter_series.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hmadconsulting-my.sharepoint.com/personal/havish_hmadconsulting_onmicrosoft_com/Documents/Havish M Consulting/GitHub/excel_dynamic_letter_number_sequence-main/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hmadconsulting-my.sharepoint.com/personal/havish_hmadconsulting_onmicrosoft_com/Documents/Documents/GitHub/excel_dynamic_letter_number_sequence/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{2C20D09C-12A8-478C-8099-7E8868E83A49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EED5C948-A394-4B5A-825C-67548FBD4081}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{2C20D09C-12A8-478C-8099-7E8868E83A49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A9D0020-C40B-4291-9765-CABF548D93D3}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00F54935-26DA-499B-8D88-DA27F8105519}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00F54935-26DA-499B-8D88-DA27F8105519}"/>
   </bookViews>
   <sheets>
     <sheet name="Profile" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,6 @@
   </sheets>
   <definedNames>
     <definedName name="Letter_Series">_xlfn.LAMBDA(_xlpm.range, LOWER(SUBSTITUTE(ADDRESS(1, _xlfn.SEQUENCE(_xlpm.range-1,,1),4), 1, "")))</definedName>
-    <definedName name="Split_Text">_xlfn.LAMBDA(_xlpm.input,_xlpm.delimiter,TRANSPOSE(_xlfn.FILTERXML("&lt;x&gt;&lt;y&gt;"&amp;SUBSTITUTE(_xlpm.input,_xlpm.delimiter,"&lt;/y&gt;&lt;y&gt;")&amp;"&lt;/y&gt;&lt;/x&gt;","//y")))</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1003,58 +1002,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9ED98F1-51D7-436C-9F3D-B25D045C36B0}">
   <dimension ref="A1:Y42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="61" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="61" workbookViewId="0">
       <selection activeCell="Q38" sqref="Q38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="25" width="8.88671875" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" hidden="1"/>
+    <col min="1" max="25" width="8.85546875" customWidth="1"/>
+    <col min="26" max="16384" width="8.85546875" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="4" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="7" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="9" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="12" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="13" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="14" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="15" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="16" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="17" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="19" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="20" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="21" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="22" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="23" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="24" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="25" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="26" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="27" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="28" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="29" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="30" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="31" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="32" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="33" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="34" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="35" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="36" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="37" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="38" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="39" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="40" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="41" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="42" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1065,17 +1064,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F8FCE0F-64AD-474F-899E-4B629A2A25F2}">
   <dimension ref="A2:C11"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="16.44140625" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
@@ -1086,7 +1085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="str" cm="1">
         <f t="array" ref="A3:A11">Letter_Series(COUNTA(C:C))</f>
         <v>a</v>
@@ -1099,7 +1098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="str">
         <v>b</v>
       </c>
@@ -1110,7 +1109,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="str">
         <v>c</v>
       </c>
@@ -1121,7 +1120,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="str">
         <v>d</v>
       </c>
@@ -1132,7 +1131,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="str">
         <v>e</v>
       </c>
@@ -1143,7 +1142,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="str">
         <v>f</v>
       </c>
@@ -1154,7 +1153,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="str">
         <v>g</v>
       </c>
@@ -1165,7 +1164,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="str">
         <v>h</v>
       </c>
@@ -1176,7 +1175,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="str">
         <v>i</v>
       </c>
